--- a/res/testcase/preferential/voucher.xlsx
+++ b/res/testcase/preferential/voucher.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950" activeTab="5"/>
+    <workbookView windowWidth="21495" windowHeight="10950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169">
   <si>
     <t>动作</t>
   </si>
@@ -327,7 +327,7 @@
     <t>VoucherPage.选择停车场</t>
   </si>
   <si>
-    <t>自动化测试停车场;on</t>
+    <t>$全局变量.停车场名称;on</t>
   </si>
   <si>
     <t>9</t>
@@ -339,6 +339,45 @@
     <t>VoucherPage.确认-二级提示</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>点击支持停车场</t>
+  </si>
+  <si>
+    <t>VoucherPage.支持停车场</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>勾选checkbox入口</t>
+  </si>
+  <si>
+    <t>VoucherPage.选择支持停车场</t>
+  </si>
+  <si>
+    <t>$全局变量.停车场入口;on</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>勾选checkbox出口</t>
+  </si>
+  <si>
+    <t>$全局变量.停车场出口;on</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>点击财务主体</t>
+  </si>
+  <si>
+    <t>VoucherPage.财务主体</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -351,9 +390,6 @@
     <t>1440</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>输入原价</t>
   </si>
   <si>
@@ -363,9 +399,6 @@
     <t>150</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>输入折扣价</t>
   </si>
   <si>
@@ -375,9 +408,6 @@
     <t>100</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>输入登录密码</t>
   </si>
   <si>
@@ -387,9 +417,6 @@
     <t>123456</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>输入确认密码</t>
   </si>
   <si>
@@ -480,7 +507,7 @@
     <t>VoucherPage.确认-提示</t>
   </si>
   <si>
-    <t>UI自动化测试勿用</t>
+    <t>$售卖管理.优惠劵</t>
   </si>
   <si>
     <t>点击禁用</t>
@@ -506,10 +533,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -534,9 +561,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,16 +613,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,21 +631,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,23 +639,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,14 +683,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -642,32 +690,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -686,7 +713,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,6 +749,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -716,19 +833,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,31 +869,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,97 +887,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,26 +922,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,17 +976,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,39 +1019,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1000,145 +1027,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1237,7 +1264,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CBE9CE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1846,10 +1873,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="B11:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2017,7 +2044,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" ht="33" customHeight="1" spans="1:5">
+    <row r="11" ht="33" customHeight="1" spans="1:4">
       <c r="A11" s="3" t="s">
         <v>106</v>
       </c>
@@ -2025,161 +2052,240 @@
         <v>107</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="3" t="s">
+    </row>
+    <row r="14" ht="33" customHeight="1" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" ht="33" customHeight="1" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" ht="33" customHeight="1" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" ht="33" customHeight="1" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" ht="33" customHeight="1" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" ht="33" customHeight="1" spans="1:5">
+      <c r="A20" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" ht="33" customHeight="1" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B20" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" ht="33" customHeight="1" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A16" s="3" t="s">
+      <c r="D20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" ht="33" customHeight="1" spans="1:8">
+      <c r="A21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A17" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" customFormat="1" ht="33" customHeight="1" spans="1:8">
+      <c r="A22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="D22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="D23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>135</v>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C36:C1048576">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C41:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C16 C17 C18 C19 C2:C4 C12:C13 C14:C15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C16 C21 C22 C23 C24 C2:C4 C17:C18 C19:C20">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C12:C15">
+      <formula1>Actions!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25:C29">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25:C35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30:C40">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -2192,10 +2298,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2262,7 +2368,7 @@
         <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
@@ -2284,7 +2390,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2292,13 +2398,13 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>95</v>
@@ -2309,13 +2415,13 @@
         <v>92</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2331,7 +2437,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2339,13 +2445,13 @@
         <v>99</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -2354,7 +2460,7 @@
         <v>103</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
@@ -2363,85 +2469,152 @@
         <v>94</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" ht="26" customHeight="1" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="D17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" ht="26" customHeight="1" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>148</v>
+      <c r="E18" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C38:C1048576">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C42:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C2:C4 C6:C7">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C10 C11 C12 B13 C13 C14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C10 C15 C16 B17 C17 C18">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C12:C14">
+      <formula1>Actions!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C30">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31:C41">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -2455,8 +2628,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2522,7 +2695,7 @@
         <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
@@ -2544,7 +2717,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" ht="28" customHeight="1" spans="1:5">
@@ -2552,16 +2725,16 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:5">
@@ -2569,13 +2742,13 @@
         <v>92</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2591,7 +2764,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:5">
@@ -2599,13 +2772,13 @@
         <v>99</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -2621,12 +2794,12 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>104</v>
@@ -2635,13 +2808,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>69</v>
@@ -2650,15 +2823,15 @@
         <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" ht="26" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>87</v>
@@ -2668,7 +2841,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2694,7 +2867,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2761,7 +2934,7 @@
         <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
@@ -2783,7 +2956,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:5">
@@ -2791,16 +2964,16 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:5">
@@ -2808,13 +2981,13 @@
         <v>92</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2830,7 +3003,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" ht="35" customHeight="1" spans="1:5">
@@ -2838,13 +3011,13 @@
         <v>99</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -2859,13 +3032,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>69</v>
@@ -2874,15 +3047,15 @@
         <v>69</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>87</v>
@@ -2892,7 +3065,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2917,8 +3090,8 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2927,7 +3100,7 @@
     <col min="2" max="2" width="22.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2985,7 +3158,7 @@
         <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
@@ -3007,7 +3180,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:5">
@@ -3015,16 +3188,16 @@
         <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:5">
@@ -3032,13 +3205,13 @@
         <v>92</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -3054,7 +3227,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
@@ -3062,13 +3235,13 @@
         <v>99</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -3083,13 +3256,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>69</v>
@@ -3098,15 +3271,15 @@
         <v>69</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>87</v>
@@ -3116,7 +3289,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
